--- a/src/main/java/decoder_files/smu_decoder_file.xlsx
+++ b/src/main/java/decoder_files/smu_decoder_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\LaborDashboard\src\main\java\decoder_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CB6935-1333-44AE-B5F6-65E14CE26928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4720BCC2-CA4C-44F5-BB23-C78EEB0B9E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="33300" yWindow="4995" windowWidth="11445" windowHeight="11520" xr2:uid="{BF93DD93-9419-4F7C-BCB7-368AC606ADC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF93DD93-9419-4F7C-BCB7-368AC606ADC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2670,7 +2670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2684,6 +2684,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3021,12 +3022,12 @@
   <dimension ref="A1:I448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>

--- a/src/main/java/decoder_files/smu_decoder_file.xlsx
+++ b/src/main/java/decoder_files/smu_decoder_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\LaborDashboard\src\main\java\decoder_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4720BCC2-CA4C-44F5-BB23-C78EEB0B9E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7874E1E0-C7F3-4181-8914-51E0ACB14B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF93DD93-9419-4F7C-BCB7-368AC606ADC2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="867">
   <si>
     <t>state_code</t>
   </si>
@@ -2595,13 +2595,55 @@
   </si>
   <si>
     <t>Delaware County, PA</t>
+  </si>
+  <si>
+    <t>data_type_text</t>
+  </si>
+  <si>
+    <t>All Employees, In Thousands</t>
+  </si>
+  <si>
+    <t>Average Weekly Hours of All Employees</t>
+  </si>
+  <si>
+    <t>Average Hourly Earnings of All Employees, In Dollars</t>
+  </si>
+  <si>
+    <t>Production or Nonsupervisory Employees, In Thousands</t>
+  </si>
+  <si>
+    <t>Average Weekly Hours of Production Employees</t>
+  </si>
+  <si>
+    <t>Average Hourly Earnings of Production Employees, In Dollars</t>
+  </si>
+  <si>
+    <t>Average Weekly Earnings of All Employees, In Dollars</t>
+  </si>
+  <si>
+    <t>Diffusion Indexes, 1-month span, seasonally adjusted, total nonfarm</t>
+  </si>
+  <si>
+    <t>Diffusion Indexes, 3-month span, seasonally adjusted, total nonfarm</t>
+  </si>
+  <si>
+    <t>Diffusion Indexes, 6-month span, seasonally adjusted, total nonfarm</t>
+  </si>
+  <si>
+    <t>Diffusion Indexes, 12-month span, seasonally adjusted, total nonfarm</t>
+  </si>
+  <si>
+    <t>All Employees, 3-month average change, In Thousands, seasonally adjusted</t>
+  </si>
+  <si>
+    <t>Average Weekly Earnings of Production Employees, In Dollars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2627,6 +2669,12 @@
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2670,7 +2718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2685,6 +2733,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3019,22 +3070,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C84651-D6E8-4D91-AF9B-F62D7CCEFDA3}">
-  <dimension ref="A1:I448"/>
+  <dimension ref="A1:N448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="29.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3062,8 +3115,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="67.5">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3091,8 +3147,12 @@
       <c r="I2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="81">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3120,8 +3180,11 @@
       <c r="I3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="108">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3149,8 +3212,11 @@
       <c r="I4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="108">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3178,8 +3244,11 @@
       <c r="I5" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="108">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3207,8 +3276,11 @@
       <c r="I6" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="121.5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3236,8 +3308,11 @@
       <c r="I7" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="108">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3265,8 +3340,11 @@
       <c r="I8" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="162">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -3294,8 +3372,11 @@
       <c r="I9" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="162">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3323,8 +3404,11 @@
       <c r="I10" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="162">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3352,8 +3436,11 @@
       <c r="I11" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="162">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -3381,8 +3468,11 @@
       <c r="I12" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="175.5">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -3410,8 +3500,11 @@
       <c r="I13" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="121.5">
       <c r="A14" s="2">
         <v>15</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="I14" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="121.5">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -3465,9 +3561,8 @@
       <c r="H15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" ht="94.5">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -3492,9 +3587,8 @@
       <c r="H16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="67.5">
       <c r="A17" s="2">
         <v>18</v>
       </c>
@@ -3519,9 +3613,8 @@
       <c r="H17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" ht="81">
       <c r="A18" s="2">
         <v>19</v>
       </c>
@@ -3546,9 +3639,8 @@
       <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="67.5">
       <c r="A19" s="2">
         <v>20</v>
       </c>
@@ -3573,9 +3665,8 @@
       <c r="H19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="81">
       <c r="A20" s="2">
         <v>21</v>
       </c>
@@ -3600,9 +3691,8 @@
       <c r="H20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="81">
       <c r="A21" s="2">
         <v>22</v>
       </c>
@@ -3627,9 +3717,8 @@
       <c r="H21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" ht="94.5">
       <c r="A22" s="2">
         <v>23</v>
       </c>
@@ -3654,9 +3743,8 @@
       <c r="H22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" ht="67.5">
       <c r="A23" s="2">
         <v>24</v>
       </c>
@@ -3681,9 +3769,8 @@
       <c r="H23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="54">
       <c r="A24" s="2">
         <v>25</v>
       </c>
@@ -3704,9 +3791,8 @@
       <c r="H24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="94.5">
       <c r="A25" s="2">
         <v>26</v>
       </c>
@@ -3727,9 +3813,8 @@
       <c r="H25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" ht="108">
       <c r="A26" s="2">
         <v>27</v>
       </c>
@@ -3750,9 +3835,8 @@
       <c r="H26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" ht="67.5">
       <c r="A27" s="2">
         <v>28</v>
       </c>
@@ -3773,9 +3857,8 @@
       <c r="H27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" ht="135">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -3796,9 +3879,8 @@
       <c r="H28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" ht="81">
       <c r="A29" s="2">
         <v>30</v>
       </c>
@@ -3819,9 +3901,8 @@
       <c r="H29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" ht="81">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -3842,9 +3923,8 @@
       <c r="H30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" ht="81">
       <c r="A31" s="2">
         <v>32</v>
       </c>
@@ -3865,9 +3945,8 @@
       <c r="H31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" ht="40.5">
       <c r="A32" s="2">
         <v>33</v>
       </c>
@@ -3888,9 +3967,8 @@
       <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" ht="54">
       <c r="A33" s="2">
         <v>34</v>
       </c>
@@ -3911,9 +3989,8 @@
       <c r="H33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" ht="54">
       <c r="A34" s="2">
         <v>35</v>
       </c>
@@ -3934,9 +4011,8 @@
       <c r="H34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" ht="67.5">
       <c r="A35" s="2">
         <v>36</v>
       </c>
@@ -3957,9 +4033,8 @@
       <c r="H35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" ht="121.5">
       <c r="A36" s="2">
         <v>37</v>
       </c>
@@ -3980,9 +4055,8 @@
       <c r="H36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" ht="67.5">
       <c r="A37" s="2">
         <v>38</v>
       </c>
@@ -4003,9 +4077,8 @@
       <c r="H37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" ht="81">
       <c r="A38" s="2">
         <v>39</v>
       </c>
@@ -4026,9 +4099,8 @@
       <c r="H38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" ht="94.5">
       <c r="A39" s="2">
         <v>40</v>
       </c>
@@ -4049,9 +4121,8 @@
       <c r="H39" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" ht="54">
       <c r="A40" s="2">
         <v>41</v>
       </c>
@@ -4072,9 +4143,8 @@
       <c r="H40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" ht="121.5">
       <c r="A41" s="2">
         <v>42</v>
       </c>
@@ -4095,9 +4165,8 @@
       <c r="H41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" ht="40.5">
       <c r="A42" s="2">
         <v>44</v>
       </c>
@@ -4118,9 +4187,8 @@
       <c r="H42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" ht="81">
       <c r="A43" s="2">
         <v>45</v>
       </c>
@@ -4141,9 +4209,8 @@
       <c r="H43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" ht="108">
       <c r="A44" s="2">
         <v>46</v>
       </c>
@@ -4164,9 +4231,8 @@
       <c r="H44" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" ht="148.5">
       <c r="A45" s="2">
         <v>47</v>
       </c>
@@ -4187,9 +4253,8 @@
       <c r="H45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" ht="94.5">
       <c r="A46" s="2">
         <v>48</v>
       </c>
@@ -4210,9 +4275,8 @@
       <c r="H46" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" ht="54">
       <c r="A47" s="2">
         <v>49</v>
       </c>
@@ -4233,9 +4297,8 @@
       <c r="H47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" ht="135">
       <c r="A48" s="2">
         <v>50</v>
       </c>
@@ -4256,9 +4319,8 @@
       <c r="H48" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" ht="81">
       <c r="A49" s="2">
         <v>51</v>
       </c>
@@ -4279,9 +4341,8 @@
       <c r="H49" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" ht="121.5">
       <c r="A50" s="2">
         <v>53</v>
       </c>
@@ -4302,9 +4363,8 @@
       <c r="H50" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" ht="81">
       <c r="A51" s="2">
         <v>54</v>
       </c>
@@ -4325,9 +4385,8 @@
       <c r="H51" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" ht="135">
       <c r="A52" s="2">
         <v>55</v>
       </c>
@@ -4348,9 +4407,8 @@
       <c r="H52" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" ht="94.5">
       <c r="A53" s="2">
         <v>56</v>
       </c>
@@ -4371,9 +4429,8 @@
       <c r="H53" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" ht="94.5">
       <c r="A54" s="2">
         <v>72</v>
       </c>
@@ -4394,9 +4451,8 @@
       <c r="H54" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" ht="108">
       <c r="A55" s="2">
         <v>78</v>
       </c>
@@ -4417,9 +4473,8 @@
       <c r="H55" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" ht="81">
       <c r="A56" s="2">
         <v>99</v>
       </c>
@@ -4440,9 +4495,8 @@
       <c r="H56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" ht="81">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2">
@@ -4459,9 +4513,8 @@
       <c r="H57" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" ht="135">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2">
@@ -4478,9 +4531,8 @@
       <c r="H58" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" ht="81">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2">
@@ -4497,9 +4549,8 @@
       <c r="H59" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" ht="94.5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2">
@@ -4516,9 +4567,8 @@
       <c r="H60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" ht="162">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2">
@@ -4535,9 +4585,8 @@
       <c r="H61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" ht="135">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2">
@@ -4554,9 +4603,8 @@
       <c r="H62" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" ht="81">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2">
@@ -4573,9 +4621,8 @@
       <c r="H63" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" ht="81">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2">
@@ -4592,9 +4639,8 @@
       <c r="H64" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" ht="81">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2">
@@ -4611,9 +4657,8 @@
       <c r="H65" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" ht="81">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2">
@@ -4630,9 +4675,8 @@
       <c r="H66" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" ht="94.5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2">
@@ -4649,9 +4693,8 @@
       <c r="H67" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" ht="67.5">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2">
@@ -4668,9 +4711,8 @@
       <c r="H68" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" ht="94.5">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2">
@@ -4687,9 +4729,8 @@
       <c r="H69" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" ht="148.5">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2">
@@ -4706,9 +4747,8 @@
       <c r="H70" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" ht="81">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2">
@@ -4725,9 +4765,8 @@
       <c r="H71" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" ht="135">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2">
@@ -4744,9 +4783,8 @@
       <c r="H72" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" ht="54">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2">
@@ -4763,9 +4801,8 @@
       <c r="H73" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" ht="94.5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2">
@@ -4782,9 +4819,8 @@
       <c r="H74" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" ht="67.5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2">
@@ -4801,9 +4837,8 @@
       <c r="H75" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" ht="81">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2">
@@ -4820,9 +4855,8 @@
       <c r="H76" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" ht="40.5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2">
@@ -4839,9 +4873,8 @@
       <c r="H77" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" ht="54">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2">
@@ -4858,9 +4891,8 @@
       <c r="H78" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" ht="54">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2">
@@ -4877,9 +4909,8 @@
       <c r="H79" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" ht="135">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2">
@@ -4896,9 +4927,8 @@
       <c r="H80" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" ht="54">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2">
@@ -4915,9 +4945,8 @@
       <c r="H81" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" ht="81">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2">
@@ -4934,9 +4963,8 @@
       <c r="H82" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" ht="94.5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2">
@@ -4953,9 +4981,8 @@
       <c r="H83" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" ht="81">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2">
@@ -4972,9 +4999,8 @@
       <c r="H84" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" ht="54">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2">
@@ -4991,9 +5017,8 @@
       <c r="H85" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" ht="81">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2">
@@ -5010,9 +5035,8 @@
       <c r="H86" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" ht="81">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2">
@@ -5029,9 +5053,8 @@
       <c r="H87" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" ht="40.5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2">
@@ -5048,9 +5071,8 @@
       <c r="H88" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" ht="67.5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2">
@@ -5067,9 +5089,8 @@
       <c r="H89" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" ht="108">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2">
@@ -5086,9 +5107,8 @@
       <c r="H90" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" ht="27">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2">
@@ -5105,9 +5125,8 @@
       <c r="H91" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" ht="108">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2">
@@ -5124,9 +5143,8 @@
       <c r="H92" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" ht="67.5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2">
@@ -5143,9 +5161,8 @@
       <c r="H93" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" ht="81">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2">
@@ -5162,9 +5179,8 @@
       <c r="H94" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" ht="40.5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2">
@@ -5181,9 +5197,8 @@
       <c r="H95" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" ht="40.5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2">
@@ -5200,9 +5215,8 @@
       <c r="H96" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" ht="67.5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2">
@@ -5219,9 +5233,8 @@
       <c r="H97" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8" ht="81">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2">
@@ -5238,9 +5251,8 @@
       <c r="H98" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" ht="81">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2">
@@ -5257,9 +5269,8 @@
       <c r="H99" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8" ht="81">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2">
@@ -5276,9 +5287,8 @@
       <c r="H100" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" ht="121.5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2">
@@ -5295,9 +5305,8 @@
       <c r="H101" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:8" ht="94.5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2">
@@ -5314,9 +5323,8 @@
       <c r="H102" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:8" ht="54">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2">
@@ -5333,9 +5341,8 @@
       <c r="H103" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:8" ht="67.5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2">
@@ -5352,9 +5359,8 @@
       <c r="H104" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:8" ht="94.5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2">
@@ -5371,9 +5377,8 @@
       <c r="H105" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:8" ht="135">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2">
@@ -5390,9 +5395,8 @@
       <c r="H106" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:8" ht="94.5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2">
@@ -5409,9 +5413,8 @@
       <c r="H107" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:8" ht="135">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2">
@@ -5428,9 +5431,8 @@
       <c r="H108" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:8" ht="54">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2">
@@ -5447,9 +5449,8 @@
       <c r="H109" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:8" ht="81">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2">
@@ -5466,9 +5467,8 @@
       <c r="H110" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:8" ht="40.5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2">
@@ -5485,9 +5485,8 @@
       <c r="H111" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:8" ht="81">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2">
@@ -5504,9 +5503,8 @@
       <c r="H112" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I112" s="3"/>
-    </row>
-    <row r="113" spans="1:9" ht="175.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:8" ht="175.5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2">
@@ -5523,9 +5521,8 @@
       <c r="H113" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I113" s="3"/>
-    </row>
-    <row r="114" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:8" ht="121.5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2">
@@ -5542,9 +5539,8 @@
       <c r="H114" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I114" s="3"/>
-    </row>
-    <row r="115" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:8" ht="148.5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2">
@@ -5561,9 +5557,8 @@
       <c r="H115" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I115" s="3"/>
-    </row>
-    <row r="116" spans="1:9" ht="175.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:8" ht="175.5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2">
@@ -5580,9 +5575,8 @@
       <c r="H116" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="I116" s="3"/>
-    </row>
-    <row r="117" spans="1:9" ht="175.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:8" ht="175.5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2">
@@ -5599,9 +5593,8 @@
       <c r="H117" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I117" s="3"/>
-    </row>
-    <row r="118" spans="1:9" ht="175.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:8" ht="175.5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2">
@@ -5618,9 +5611,8 @@
       <c r="H118" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I118" s="3"/>
-    </row>
-    <row r="119" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:8" ht="135">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2">
@@ -5637,9 +5629,8 @@
       <c r="H119" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I119" s="3"/>
-    </row>
-    <row r="120" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:8" ht="108">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2">
@@ -5656,9 +5647,8 @@
       <c r="H120" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I120" s="3"/>
-    </row>
-    <row r="121" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:8" ht="94.5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2">
@@ -5675,9 +5665,8 @@
       <c r="H121" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="I121" s="3"/>
-    </row>
-    <row r="122" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:8" ht="108">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2">
@@ -5694,9 +5683,8 @@
       <c r="H122" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I122" s="3"/>
-    </row>
-    <row r="123" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:8" ht="121.5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2">
@@ -5713,9 +5701,8 @@
       <c r="H123" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="I123" s="3"/>
-    </row>
-    <row r="124" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:8" ht="108">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2">
@@ -5732,9 +5719,8 @@
       <c r="H124" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I124" s="3"/>
-    </row>
-    <row r="125" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:8" ht="121.5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2">
@@ -5751,9 +5737,8 @@
       <c r="H125" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I125" s="3"/>
-    </row>
-    <row r="126" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:8" ht="121.5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2">
@@ -5770,9 +5755,8 @@
       <c r="H126" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I126" s="3"/>
-    </row>
-    <row r="127" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:8" ht="81">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2">
@@ -5789,9 +5773,8 @@
       <c r="H127" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I127" s="3"/>
-    </row>
-    <row r="128" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:8" ht="27">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2">
@@ -5808,9 +5791,8 @@
       <c r="H128" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I128" s="3"/>
-    </row>
-    <row r="129" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:8" ht="67.5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2">
@@ -5827,9 +5809,8 @@
       <c r="H129" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I129" s="3"/>
-    </row>
-    <row r="130" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:8" ht="40.5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2">
@@ -5846,9 +5827,8 @@
       <c r="H130" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="I130" s="3"/>
-    </row>
-    <row r="131" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:8" ht="54">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2">
@@ -5865,9 +5845,8 @@
       <c r="H131" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I131" s="3"/>
-    </row>
-    <row r="132" spans="1:9" ht="175.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:8" ht="175.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2">
@@ -5884,9 +5863,8 @@
       <c r="H132" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="I132" s="3"/>
-    </row>
-    <row r="133" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:8" ht="135">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2">
@@ -5903,9 +5881,8 @@
       <c r="H133" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="I133" s="3"/>
-    </row>
-    <row r="134" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:8" ht="94.5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2">
@@ -5922,9 +5899,8 @@
       <c r="H134" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I134" s="3"/>
-    </row>
-    <row r="135" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:8" ht="108">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2">
@@ -5941,9 +5917,8 @@
       <c r="H135" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="I135" s="3"/>
-    </row>
-    <row r="136" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:8" ht="81">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2">
@@ -5960,9 +5935,8 @@
       <c r="H136" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I136" s="3"/>
-    </row>
-    <row r="137" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:8" ht="54">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2">
@@ -5979,9 +5953,8 @@
       <c r="H137" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="I137" s="3"/>
-    </row>
-    <row r="138" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:8" ht="81">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2">
@@ -5998,9 +5971,8 @@
       <c r="H138" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="I138" s="3"/>
-    </row>
-    <row r="139" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:8" ht="162">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2">
@@ -6017,9 +5989,8 @@
       <c r="H139" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I139" s="3"/>
-    </row>
-    <row r="140" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:8" ht="94.5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2">
@@ -6036,9 +6007,8 @@
       <c r="H140" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I140" s="3"/>
-    </row>
-    <row r="141" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:8" ht="54">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2">
@@ -6055,9 +6025,8 @@
       <c r="H141" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="I141" s="3"/>
-    </row>
-    <row r="142" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:8" ht="67.5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2">
@@ -6074,9 +6043,8 @@
       <c r="H142" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I142" s="3"/>
-    </row>
-    <row r="143" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:8" ht="94.5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2">
@@ -6093,9 +6061,8 @@
       <c r="H143" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="I143" s="3"/>
-    </row>
-    <row r="144" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:8" ht="67.5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2">
@@ -6112,9 +6079,8 @@
       <c r="H144" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I144" s="3"/>
-    </row>
-    <row r="145" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:8" ht="40.5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2">
@@ -6131,9 +6097,8 @@
       <c r="H145" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="I145" s="3"/>
-    </row>
-    <row r="146" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:8" ht="162">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2">
@@ -6150,9 +6115,8 @@
       <c r="H146" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I146" s="3"/>
-    </row>
-    <row r="147" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:8" ht="81">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2">
@@ -6169,9 +6133,8 @@
       <c r="H147" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I147" s="3"/>
-    </row>
-    <row r="148" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:8" ht="81">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2">
@@ -6188,9 +6151,8 @@
       <c r="H148" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="I148" s="3"/>
-    </row>
-    <row r="149" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:8" ht="148.5">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2">
@@ -6207,9 +6169,8 @@
       <c r="H149" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="I149" s="3"/>
-    </row>
-    <row r="150" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:8" ht="108">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2">
@@ -6226,9 +6187,8 @@
       <c r="H150" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I150" s="3"/>
-    </row>
-    <row r="151" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:8" ht="108">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2">
@@ -6245,9 +6205,8 @@
       <c r="H151" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I151" s="3"/>
-    </row>
-    <row r="152" spans="1:9" ht="175.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:8" ht="175.5">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2">
@@ -6264,9 +6223,8 @@
       <c r="H152" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="I152" s="3"/>
-    </row>
-    <row r="153" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:8" ht="135">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2">
@@ -6283,9 +6241,8 @@
       <c r="H153" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I153" s="3"/>
-    </row>
-    <row r="154" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:8" ht="81">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2">
@@ -6302,9 +6259,8 @@
       <c r="H154" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I154" s="3"/>
-    </row>
-    <row r="155" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:8" ht="121.5">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2">
@@ -6321,9 +6277,8 @@
       <c r="H155" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="I155" s="3"/>
-    </row>
-    <row r="156" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:8" ht="67.5">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2">
@@ -6340,9 +6295,8 @@
       <c r="H156" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="I156" s="3"/>
-    </row>
-    <row r="157" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:8" ht="67.5">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2">
@@ -6359,9 +6313,8 @@
       <c r="H157" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I157" s="3"/>
-    </row>
-    <row r="158" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:8" ht="108">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2">
@@ -6378,9 +6331,8 @@
       <c r="H158" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I158" s="3"/>
-    </row>
-    <row r="159" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:8" ht="40.5">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2">
@@ -6397,9 +6349,8 @@
       <c r="H159" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I159" s="3"/>
-    </row>
-    <row r="160" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:8" ht="121.5">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2">
@@ -6416,9 +6367,8 @@
       <c r="H160" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="I160" s="3"/>
-    </row>
-    <row r="161" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:8" ht="54">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2">
@@ -6435,9 +6385,8 @@
       <c r="H161" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="I161" s="3"/>
-    </row>
-    <row r="162" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:8" ht="67.5">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2">
@@ -6454,9 +6403,8 @@
       <c r="H162" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I162" s="3"/>
-    </row>
-    <row r="163" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:8" ht="54">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2">
@@ -6473,9 +6421,8 @@
       <c r="H163" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I163" s="3"/>
-    </row>
-    <row r="164" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:8" ht="94.5">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2">
@@ -6492,9 +6439,8 @@
       <c r="H164" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I164" s="3"/>
-    </row>
-    <row r="165" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:8" ht="40.5">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2">
@@ -6511,9 +6457,8 @@
       <c r="H165" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I165" s="3"/>
-    </row>
-    <row r="166" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:8" ht="54">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2">
@@ -6530,9 +6475,8 @@
       <c r="H166" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I166" s="3"/>
-    </row>
-    <row r="167" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:8" ht="40.5">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2">
@@ -6549,9 +6493,8 @@
       <c r="H167" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I167" s="3"/>
-    </row>
-    <row r="168" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:8" ht="54">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2">
@@ -6568,9 +6511,8 @@
       <c r="H168" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I168" s="3"/>
-    </row>
-    <row r="169" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:8" ht="94.5">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2">
@@ -6587,9 +6529,8 @@
       <c r="H169" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="I169" s="3"/>
-    </row>
-    <row r="170" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:8" ht="94.5">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2">
@@ -6606,9 +6547,8 @@
       <c r="H170" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="I170" s="3"/>
-    </row>
-    <row r="171" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:8" ht="67.5">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2">
@@ -6625,9 +6565,8 @@
       <c r="H171" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="I171" s="3"/>
-    </row>
-    <row r="172" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:8" ht="81">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2">
@@ -6644,9 +6583,8 @@
       <c r="H172" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="I172" s="3"/>
-    </row>
-    <row r="173" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:8" ht="67.5">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2">
@@ -6663,9 +6601,8 @@
       <c r="H173" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="I173" s="3"/>
-    </row>
-    <row r="174" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:8" ht="67.5">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2">
@@ -6682,9 +6619,8 @@
       <c r="H174" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I174" s="3"/>
-    </row>
-    <row r="175" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:8" ht="81">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2">
@@ -6701,9 +6637,8 @@
       <c r="H175" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I175" s="3"/>
-    </row>
-    <row r="176" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:8" ht="81">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2">
@@ -6720,9 +6655,8 @@
       <c r="H176" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="I176" s="3"/>
-    </row>
-    <row r="177" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:8" ht="81">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2">
@@ -6739,9 +6673,8 @@
       <c r="H177" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I177" s="3"/>
-    </row>
-    <row r="178" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:8" ht="67.5">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2">
@@ -6758,9 +6691,8 @@
       <c r="H178" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I178" s="3"/>
-    </row>
-    <row r="179" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:8" ht="54">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2">
@@ -6777,9 +6709,8 @@
       <c r="H179" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I179" s="3"/>
-    </row>
-    <row r="180" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:8" ht="54">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2">
@@ -6796,9 +6727,8 @@
       <c r="H180" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="I180" s="3"/>
-    </row>
-    <row r="181" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:8" ht="54">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2">
@@ -6815,9 +6745,8 @@
       <c r="H181" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I181" s="3"/>
-    </row>
-    <row r="182" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:8" ht="108">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2">
@@ -6834,9 +6763,8 @@
       <c r="H182" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="I182" s="3"/>
-    </row>
-    <row r="183" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:8" ht="81">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2">
@@ -6853,9 +6781,8 @@
       <c r="H183" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="I183" s="3"/>
-    </row>
-    <row r="184" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:8" ht="81">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2">
@@ -6872,9 +6799,8 @@
       <c r="H184" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I184" s="3"/>
-    </row>
-    <row r="185" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:8" ht="54">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2">
@@ -6891,9 +6817,8 @@
       <c r="H185" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I185" s="3"/>
-    </row>
-    <row r="186" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:8" ht="135">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2">
@@ -6910,9 +6835,8 @@
       <c r="H186" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I186" s="3"/>
-    </row>
-    <row r="187" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:8" ht="54">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2">
@@ -6929,9 +6853,8 @@
       <c r="H187" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="I187" s="3"/>
-    </row>
-    <row r="188" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:8" ht="81">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2">
@@ -6948,9 +6871,8 @@
       <c r="H188" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I188" s="3"/>
-    </row>
-    <row r="189" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:8" ht="108">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2">
@@ -6967,9 +6889,8 @@
       <c r="H189" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I189" s="3"/>
-    </row>
-    <row r="190" spans="1:9" ht="229.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:8" ht="229.5">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2">
@@ -6986,9 +6907,8 @@
       <c r="H190" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="I190" s="3"/>
-    </row>
-    <row r="191" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:8" ht="54">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2">
@@ -7005,9 +6925,8 @@
       <c r="H191" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="I191" s="3"/>
-    </row>
-    <row r="192" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:8" ht="135">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2">
@@ -7024,9 +6943,8 @@
       <c r="H192" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I192" s="3"/>
-    </row>
-    <row r="193" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:8" ht="81">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2">
@@ -7043,9 +6961,8 @@
       <c r="H193" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I193" s="3"/>
-    </row>
-    <row r="194" spans="1:9" ht="202.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:8" ht="202.5">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2">
@@ -7062,9 +6979,8 @@
       <c r="H194" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I194" s="3"/>
-    </row>
-    <row r="195" spans="1:9" ht="175.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:8" ht="175.5">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2">
@@ -7081,9 +6997,8 @@
       <c r="H195" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="I195" s="3"/>
-    </row>
-    <row r="196" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:8" ht="54">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2">
@@ -7100,9 +7015,8 @@
       <c r="H196" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I196" s="3"/>
-    </row>
-    <row r="197" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:8" ht="67.5">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2">
@@ -7119,9 +7033,8 @@
       <c r="H197" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I197" s="3"/>
-    </row>
-    <row r="198" spans="1:9" ht="202.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:8" ht="202.5">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2">
@@ -7138,9 +7051,8 @@
       <c r="H198" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="I198" s="3"/>
-    </row>
-    <row r="199" spans="1:9" ht="175.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:8" ht="175.5">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2">
@@ -7157,9 +7069,8 @@
       <c r="H199" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I199" s="3"/>
-    </row>
-    <row r="200" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:8" ht="40.5">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2">
@@ -7176,9 +7087,8 @@
       <c r="H200" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I200" s="3"/>
-    </row>
-    <row r="201" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:8" ht="121.5">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="2">
@@ -7195,9 +7105,8 @@
       <c r="H201" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="I201" s="3"/>
-    </row>
-    <row r="202" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:8" ht="94.5">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="2">
@@ -7214,9 +7123,8 @@
       <c r="H202" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I202" s="3"/>
-    </row>
-    <row r="203" spans="1:9" ht="189" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:8" ht="189">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="2">
@@ -7233,9 +7141,8 @@
       <c r="H203" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I203" s="3"/>
-    </row>
-    <row r="204" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:8" ht="148.5">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="2">
@@ -7252,9 +7159,8 @@
       <c r="H204" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="I204" s="3"/>
-    </row>
-    <row r="205" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:8" ht="108">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="2">
@@ -7271,9 +7177,8 @@
       <c r="H205" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="I205" s="3"/>
-    </row>
-    <row r="206" spans="1:9" ht="175.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:8" ht="175.5">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="2">
@@ -7290,9 +7195,8 @@
       <c r="H206" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="I206" s="3"/>
-    </row>
-    <row r="207" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:8" ht="94.5">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="2">
@@ -7309,9 +7213,8 @@
       <c r="H207" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I207" s="3"/>
-    </row>
-    <row r="208" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:8" ht="81">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="2">
@@ -7328,9 +7231,8 @@
       <c r="H208" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="I208" s="3"/>
-    </row>
-    <row r="209" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:8" ht="81">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="2">
@@ -7347,9 +7249,8 @@
       <c r="H209" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="I209" s="3"/>
-    </row>
-    <row r="210" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:8" ht="108">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="2">
@@ -7366,9 +7267,8 @@
       <c r="H210" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="I210" s="3"/>
-    </row>
-    <row r="211" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:8" ht="121.5">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="2">
@@ -7385,9 +7285,8 @@
       <c r="H211" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I211" s="3"/>
-    </row>
-    <row r="212" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:8" ht="148.5">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="2">
@@ -7404,9 +7303,8 @@
       <c r="H212" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I212" s="3"/>
-    </row>
-    <row r="213" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:8" ht="81">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="2">
@@ -7423,9 +7321,8 @@
       <c r="H213" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="I213" s="3"/>
-    </row>
-    <row r="214" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:8" ht="27">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="2">
@@ -7442,9 +7339,8 @@
       <c r="H214" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I214" s="3"/>
-    </row>
-    <row r="215" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:8" ht="40.5">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="2">
@@ -7461,9 +7357,8 @@
       <c r="H215" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="I215" s="3"/>
-    </row>
-    <row r="216" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:8" ht="94.5">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="2">
@@ -7480,9 +7375,8 @@
       <c r="H216" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I216" s="3"/>
-    </row>
-    <row r="217" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:8" ht="67.5">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="2">
@@ -7499,9 +7393,8 @@
       <c r="H217" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="I217" s="3"/>
-    </row>
-    <row r="218" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:8" ht="67.5">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="2">
@@ -7518,9 +7411,8 @@
       <c r="H218" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="I218" s="3"/>
-    </row>
-    <row r="219" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:8" ht="94.5">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="2">
@@ -7537,9 +7429,8 @@
       <c r="H219" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="I219" s="3"/>
-    </row>
-    <row r="220" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:8" ht="81">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="2">
@@ -7556,9 +7447,8 @@
       <c r="H220" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="I220" s="3"/>
-    </row>
-    <row r="221" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:8" ht="135">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="2">
@@ -7575,9 +7465,8 @@
       <c r="H221" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I221" s="3"/>
-    </row>
-    <row r="222" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:8" ht="148.5">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="2">
@@ -7594,9 +7483,8 @@
       <c r="H222" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="I222" s="3"/>
-    </row>
-    <row r="223" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:8" ht="94.5">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="2">
@@ -7613,9 +7501,8 @@
       <c r="H223" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I223" s="3"/>
-    </row>
-    <row r="224" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:8" ht="121.5">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="2">
@@ -7632,9 +7519,8 @@
       <c r="H224" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="I224" s="3"/>
-    </row>
-    <row r="225" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:8" ht="54">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="2">
@@ -7651,9 +7537,8 @@
       <c r="H225" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="I225" s="3"/>
-    </row>
-    <row r="226" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:8" ht="148.5">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="2">
@@ -7670,9 +7555,8 @@
       <c r="H226" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="I226" s="3"/>
-    </row>
-    <row r="227" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:8" ht="108">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="2">
@@ -7689,9 +7573,8 @@
       <c r="H227" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="I227" s="3"/>
-    </row>
-    <row r="228" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:8" ht="67.5">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="2">
@@ -7708,9 +7591,8 @@
       <c r="H228" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="I228" s="3"/>
-    </row>
-    <row r="229" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:8" ht="108">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="2">
@@ -7727,9 +7609,8 @@
       <c r="H229" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="I229" s="3"/>
-    </row>
-    <row r="230" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:8" ht="148.5">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="2">
@@ -7746,9 +7627,8 @@
       <c r="H230" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="I230" s="3"/>
-    </row>
-    <row r="231" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:8" ht="108">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="2">
@@ -7765,9 +7645,8 @@
       <c r="H231" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="I231" s="3"/>
-    </row>
-    <row r="232" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:8" ht="108">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="2">
@@ -7784,9 +7663,8 @@
       <c r="H232" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="I232" s="3"/>
-    </row>
-    <row r="233" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:8" ht="135">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="2">
@@ -7803,9 +7681,8 @@
       <c r="H233" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I233" s="3"/>
-    </row>
-    <row r="234" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:8" ht="81">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="2">
@@ -7822,9 +7699,8 @@
       <c r="H234" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="I234" s="3"/>
-    </row>
-    <row r="235" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:8" ht="162">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="2">
@@ -7841,9 +7717,8 @@
       <c r="H235" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I235" s="3"/>
-    </row>
-    <row r="236" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:8" ht="108">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="2">
@@ -7860,9 +7735,8 @@
       <c r="H236" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="I236" s="3"/>
-    </row>
-    <row r="237" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:8" ht="121.5">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="2">
@@ -7879,9 +7753,8 @@
       <c r="H237" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="I237" s="3"/>
-    </row>
-    <row r="238" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:8" ht="67.5">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="2">
@@ -7898,9 +7771,8 @@
       <c r="H238" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="I238" s="3"/>
-    </row>
-    <row r="239" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:8" ht="54">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="2">
@@ -7917,9 +7789,8 @@
       <c r="H239" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="I239" s="3"/>
-    </row>
-    <row r="240" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:8" ht="54">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="2">
@@ -7936,9 +7807,8 @@
       <c r="H240" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="I240" s="3"/>
-    </row>
-    <row r="241" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:8" ht="81">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="2">
@@ -7955,9 +7825,8 @@
       <c r="H241" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="I241" s="3"/>
-    </row>
-    <row r="242" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:8" ht="94.5">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="2">
@@ -7974,9 +7843,8 @@
       <c r="H242" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="I242" s="3"/>
-    </row>
-    <row r="243" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:8" ht="108">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="2">
@@ -7993,9 +7861,8 @@
       <c r="H243" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="I243" s="3"/>
-    </row>
-    <row r="244" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:8" ht="94.5">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="2">
@@ -8012,9 +7879,8 @@
       <c r="H244" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="I244" s="3"/>
-    </row>
-    <row r="245" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:8" ht="108">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="2">
@@ -8031,9 +7897,8 @@
       <c r="H245" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I245" s="3"/>
-    </row>
-    <row r="246" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:8" ht="81">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="2">
@@ -8050,9 +7915,8 @@
       <c r="H246" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="I246" s="3"/>
-    </row>
-    <row r="247" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:8" ht="54">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="2">
@@ -8069,9 +7933,8 @@
       <c r="H247" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="I247" s="3"/>
-    </row>
-    <row r="248" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:8" ht="94.5">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="2">
@@ -8088,9 +7951,8 @@
       <c r="H248" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="I248" s="3"/>
-    </row>
-    <row r="249" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:8" ht="162">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="2">
@@ -8107,9 +7969,8 @@
       <c r="H249" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="I249" s="3"/>
-    </row>
-    <row r="250" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:8" ht="67.5">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="2">
@@ -8126,9 +7987,8 @@
       <c r="H250" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="I250" s="3"/>
-    </row>
-    <row r="251" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:8" ht="81">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="2">
@@ -8145,9 +8005,8 @@
       <c r="H251" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="I251" s="3"/>
-    </row>
-    <row r="252" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:8" ht="54">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="2">
@@ -8164,9 +8023,8 @@
       <c r="H252" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="I252" s="3"/>
-    </row>
-    <row r="253" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:8" ht="121.5">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="2">
@@ -8183,9 +8041,8 @@
       <c r="H253" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="I253" s="3"/>
-    </row>
-    <row r="254" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:8" ht="81">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="2">
@@ -8202,9 +8059,8 @@
       <c r="H254" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="I254" s="3"/>
-    </row>
-    <row r="255" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:8" ht="94.5">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="2">
@@ -8221,9 +8077,8 @@
       <c r="H255" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="I255" s="3"/>
-    </row>
-    <row r="256" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:8" ht="81">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="2">
@@ -8240,9 +8095,8 @@
       <c r="H256" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="I256" s="3"/>
-    </row>
-    <row r="257" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:8" ht="81">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="2">
@@ -8259,9 +8113,8 @@
       <c r="H257" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="I257" s="3"/>
-    </row>
-    <row r="258" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:8" ht="108">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="2">
@@ -8278,9 +8131,8 @@
       <c r="H258" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="I258" s="3"/>
-    </row>
-    <row r="259" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:8" ht="121.5">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="2">
@@ -8297,9 +8149,8 @@
       <c r="H259" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="I259" s="3"/>
-    </row>
-    <row r="260" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:8" ht="81">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="2">
@@ -8316,9 +8167,8 @@
       <c r="H260" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="I260" s="3"/>
-    </row>
-    <row r="261" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:8" ht="81">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="2">
@@ -8335,9 +8185,8 @@
       <c r="H261" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="I261" s="3"/>
-    </row>
-    <row r="262" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:8" ht="67.5">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="2">
@@ -8354,9 +8203,8 @@
       <c r="H262" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I262" s="3"/>
-    </row>
-    <row r="263" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:8" ht="148.5">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="2">
@@ -8373,9 +8221,8 @@
       <c r="H263" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="I263" s="3"/>
-    </row>
-    <row r="264" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:8" ht="94.5">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="2">
@@ -8392,9 +8239,8 @@
       <c r="H264" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I264" s="3"/>
-    </row>
-    <row r="265" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:8" ht="94.5">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="2">
@@ -8411,9 +8257,8 @@
       <c r="H265" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I265" s="3"/>
-    </row>
-    <row r="266" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:8" ht="108">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="2">
@@ -8430,9 +8275,8 @@
       <c r="H266" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="I266" s="3"/>
-    </row>
-    <row r="267" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:8" ht="148.5">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="2">
@@ -8449,9 +8293,8 @@
       <c r="H267" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="I267" s="3"/>
-    </row>
-    <row r="268" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:8" ht="94.5">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="2">
@@ -8468,9 +8311,8 @@
       <c r="H268" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I268" s="3"/>
-    </row>
-    <row r="269" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:8" ht="121.5">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="2">
@@ -8487,9 +8329,8 @@
       <c r="H269" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="I269" s="3"/>
-    </row>
-    <row r="270" spans="1:9" ht="229.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:8" ht="229.5">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="2">
@@ -8506,9 +8347,8 @@
       <c r="H270" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="I270" s="3"/>
-    </row>
-    <row r="271" spans="1:9" ht="202.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:8" ht="202.5">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="2">
@@ -8525,9 +8365,8 @@
       <c r="H271" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="I271" s="3"/>
-    </row>
-    <row r="272" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:8" ht="81">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="2">
@@ -8544,9 +8383,8 @@
       <c r="H272" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="I272" s="3"/>
-    </row>
-    <row r="273" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:8" ht="40.5">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="2">
@@ -8563,9 +8401,8 @@
       <c r="H273" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="I273" s="3"/>
-    </row>
-    <row r="274" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:8" ht="67.5">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="2">
@@ -8582,9 +8419,8 @@
       <c r="H274" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="I274" s="3"/>
-    </row>
-    <row r="275" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:8" ht="121.5">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="2">
@@ -8601,9 +8437,8 @@
       <c r="H275" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I275" s="3"/>
-    </row>
-    <row r="276" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:8" ht="148.5">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="2">
@@ -8620,9 +8455,8 @@
       <c r="H276" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="I276" s="3"/>
-    </row>
-    <row r="277" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:8" ht="81">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="2">
@@ -8639,9 +8473,8 @@
       <c r="H277" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="I277" s="3"/>
-    </row>
-    <row r="278" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:8" ht="67.5">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="2">
@@ -8658,9 +8491,8 @@
       <c r="H278" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="I278" s="3"/>
-    </row>
-    <row r="279" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:8" ht="81">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="2">
@@ -8677,9 +8509,8 @@
       <c r="H279" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I279" s="3"/>
-    </row>
-    <row r="280" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:8" ht="81">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="2">
@@ -8696,9 +8527,8 @@
       <c r="H280" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="I280" s="3"/>
-    </row>
-    <row r="281" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:8" ht="135">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="2">
@@ -8715,9 +8545,8 @@
       <c r="H281" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="I281" s="3"/>
-    </row>
-    <row r="282" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:8" ht="81">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="2">
@@ -8734,9 +8563,8 @@
       <c r="H282" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="I282" s="3"/>
-    </row>
-    <row r="283" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:8" ht="40.5">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="2">
@@ -8753,9 +8581,8 @@
       <c r="H283" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="I283" s="3"/>
-    </row>
-    <row r="284" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:8" ht="121.5">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="2">
@@ -8772,9 +8599,8 @@
       <c r="H284" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="I284" s="3"/>
-    </row>
-    <row r="285" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:8" ht="108">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="2">
@@ -8791,9 +8617,8 @@
       <c r="H285" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="I285" s="3"/>
-    </row>
-    <row r="286" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:8" ht="121.5">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="2">
@@ -8810,9 +8635,8 @@
       <c r="H286" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="I286" s="3"/>
-    </row>
-    <row r="287" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:8" ht="108">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="2">
@@ -8829,9 +8653,8 @@
       <c r="H287" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="I287" s="3"/>
-    </row>
-    <row r="288" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:8" ht="67.5">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="2">
@@ -8848,9 +8671,8 @@
       <c r="H288" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="I288" s="3"/>
-    </row>
-    <row r="289" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:8" ht="54">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="2">
@@ -8867,9 +8689,8 @@
       <c r="H289" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="I289" s="3"/>
-    </row>
-    <row r="290" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:8" ht="94.5">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="2">
@@ -8886,9 +8707,8 @@
       <c r="H290" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="I290" s="3"/>
-    </row>
-    <row r="291" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:8" ht="94.5">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="2">
@@ -8905,9 +8725,8 @@
       <c r="H291" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="I291" s="3"/>
-    </row>
-    <row r="292" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:8" ht="81">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="2">
@@ -8924,9 +8743,8 @@
       <c r="H292" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="I292" s="3"/>
-    </row>
-    <row r="293" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:8" ht="27">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="2">
@@ -8943,9 +8761,8 @@
       <c r="H293" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="I293" s="3"/>
-    </row>
-    <row r="294" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:8" ht="54">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="2">
@@ -8962,9 +8779,8 @@
       <c r="H294" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="I294" s="3"/>
-    </row>
-    <row r="295" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:8" ht="81">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="2">
@@ -8981,9 +8797,8 @@
       <c r="H295" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="I295" s="3"/>
-    </row>
-    <row r="296" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:8" ht="40.5">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="2">
@@ -9000,9 +8815,8 @@
       <c r="H296" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="I296" s="3"/>
-    </row>
-    <row r="297" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:8" ht="81">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="2">
@@ -9019,9 +8833,8 @@
       <c r="H297" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="I297" s="3"/>
-    </row>
-    <row r="298" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:8" ht="54">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="2">
@@ -9038,9 +8851,8 @@
       <c r="H298" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="I298" s="3"/>
-    </row>
-    <row r="299" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:8" ht="94.5">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="2">
@@ -9057,9 +8869,8 @@
       <c r="H299" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="I299" s="3"/>
-    </row>
-    <row r="300" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:8" ht="81">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="2">
@@ -9076,9 +8887,8 @@
       <c r="H300" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="I300" s="3"/>
-    </row>
-    <row r="301" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:8" ht="54">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="2">
@@ -9095,9 +8905,8 @@
       <c r="H301" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="I301" s="3"/>
-    </row>
-    <row r="302" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:8" ht="108">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="2">
@@ -9114,9 +8923,8 @@
       <c r="H302" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="I302" s="3"/>
-    </row>
-    <row r="303" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:8" ht="40.5">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="2">
@@ -9133,9 +8941,8 @@
       <c r="H303" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I303" s="3"/>
-    </row>
-    <row r="304" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:8" ht="81">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="2">
@@ -9152,9 +8959,8 @@
       <c r="H304" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="I304" s="3"/>
-    </row>
-    <row r="305" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:8" ht="81">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="2">
@@ -9171,9 +8977,8 @@
       <c r="H305" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="I305" s="3"/>
-    </row>
-    <row r="306" spans="1:9" ht="229.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:8" ht="229.5">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="2">
@@ -9190,9 +8995,8 @@
       <c r="H306" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="I306" s="3"/>
-    </row>
-    <row r="307" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:8" ht="121.5">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="2">
@@ -9209,9 +9013,8 @@
       <c r="H307" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="I307" s="3"/>
-    </row>
-    <row r="308" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:8" ht="67.5">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="2">
@@ -9228,9 +9031,8 @@
       <c r="H308" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="I308" s="3"/>
-    </row>
-    <row r="309" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:8" ht="54">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="2">
@@ -9247,9 +9049,8 @@
       <c r="H309" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="I309" s="3"/>
-    </row>
-    <row r="310" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:8" ht="81">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="2">
@@ -9266,9 +9067,8 @@
       <c r="H310" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="I310" s="3"/>
-    </row>
-    <row r="311" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:8" ht="94.5">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="2">
@@ -9285,9 +9085,8 @@
       <c r="H311" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="I311" s="3"/>
-    </row>
-    <row r="312" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:8" ht="148.5">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="2">
@@ -9304,9 +9103,8 @@
       <c r="H312" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="I312" s="3"/>
-    </row>
-    <row r="313" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:8" ht="54">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="2">
@@ -9323,9 +9121,8 @@
       <c r="H313" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="I313" s="3"/>
-    </row>
-    <row r="314" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:8" ht="81">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="2">
@@ -9342,9 +9139,8 @@
       <c r="H314" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="I314" s="3"/>
-    </row>
-    <row r="315" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:8" ht="67.5">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="2">
@@ -9361,9 +9157,8 @@
       <c r="H315" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="I315" s="3"/>
-    </row>
-    <row r="316" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:8" ht="67.5">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="2">
@@ -9380,9 +9175,8 @@
       <c r="H316" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="I316" s="3"/>
-    </row>
-    <row r="317" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:8" ht="135">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="2">
@@ -9399,9 +9193,8 @@
       <c r="H317" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="I317" s="3"/>
-    </row>
-    <row r="318" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:8" ht="27">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="2">
@@ -9418,9 +9211,8 @@
       <c r="H318" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I318" s="3"/>
-    </row>
-    <row r="319" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:8" ht="40.5">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="2">
@@ -9437,9 +9229,8 @@
       <c r="H319" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="I319" s="3"/>
-    </row>
-    <row r="320" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:8" ht="108">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="2">
@@ -9456,9 +9247,8 @@
       <c r="H320" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="I320" s="3"/>
-    </row>
-    <row r="321" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:8" ht="94.5">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="2">
@@ -9475,9 +9265,8 @@
       <c r="H321" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="I321" s="3"/>
-    </row>
-    <row r="322" spans="1:9" ht="216" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:8" ht="216">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="2">
@@ -9494,9 +9283,8 @@
       <c r="H322" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="I322" s="3"/>
-    </row>
-    <row r="323" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:8" ht="67.5">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="2">
@@ -9513,9 +9301,8 @@
       <c r="H323" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="I323" s="3"/>
-    </row>
-    <row r="324" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:8" ht="81">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="2">
@@ -9532,9 +9319,8 @@
       <c r="H324" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="I324" s="3"/>
-    </row>
-    <row r="325" spans="1:9" ht="175.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:8" ht="175.5">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="2">
@@ -9551,9 +9337,8 @@
       <c r="H325" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="I325" s="3"/>
-    </row>
-    <row r="326" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:8" ht="135">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="2">
@@ -9570,9 +9355,8 @@
       <c r="H326" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="I326" s="3"/>
-    </row>
-    <row r="327" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:8" ht="94.5">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="2">
@@ -9589,9 +9373,8 @@
       <c r="H327" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="I327" s="3"/>
-    </row>
-    <row r="328" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:8" ht="81">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="2">
@@ -9608,9 +9391,8 @@
       <c r="H328" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="I328" s="3"/>
-    </row>
-    <row r="329" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:8" ht="108">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="2">
@@ -9627,9 +9409,8 @@
       <c r="H329" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="I329" s="3"/>
-    </row>
-    <row r="330" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:8" ht="94.5">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="2">
@@ -9646,9 +9427,8 @@
       <c r="H330" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="I330" s="3"/>
-    </row>
-    <row r="331" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:8" ht="67.5">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="2">
@@ -9665,9 +9445,8 @@
       <c r="H331" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="I331" s="3"/>
-    </row>
-    <row r="332" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:8" ht="148.5">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="2">
@@ -9684,9 +9463,8 @@
       <c r="H332" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="I332" s="3"/>
-    </row>
-    <row r="333" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:8" ht="67.5">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="2">
@@ -9703,9 +9481,8 @@
       <c r="H333" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="I333" s="3"/>
-    </row>
-    <row r="334" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:8" ht="40.5">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="2">
@@ -9722,9 +9499,8 @@
       <c r="H334" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="I334" s="3"/>
-    </row>
-    <row r="335" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:8" ht="94.5">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="2">
@@ -9741,9 +9517,8 @@
       <c r="H335" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="I335" s="3"/>
-    </row>
-    <row r="336" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:8" ht="121.5">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="2">
@@ -9760,9 +9535,8 @@
       <c r="H336" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="I336" s="3"/>
-    </row>
-    <row r="337" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:8" ht="121.5">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="2">
@@ -9779,9 +9553,8 @@
       <c r="H337" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="I337" s="3"/>
-    </row>
-    <row r="338" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:8" ht="67.5">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="2">
@@ -9798,9 +9571,8 @@
       <c r="H338" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="I338" s="3"/>
-    </row>
-    <row r="339" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:8" ht="121.5">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="2">
@@ -9817,9 +9589,8 @@
       <c r="H339" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="I339" s="3"/>
-    </row>
-    <row r="340" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:8" ht="81">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="2">
@@ -9836,9 +9607,8 @@
       <c r="H340" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="I340" s="3"/>
-    </row>
-    <row r="341" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:8" ht="81">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="2">
@@ -9855,9 +9625,8 @@
       <c r="H341" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="I341" s="3"/>
-    </row>
-    <row r="342" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:8" ht="40.5">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="2">
@@ -9870,9 +9639,8 @@
       <c r="F342" s="3"/>
       <c r="G342" s="4"/>
       <c r="H342" s="3"/>
-      <c r="I342" s="3"/>
-    </row>
-    <row r="343" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:8" ht="67.5">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="2">
@@ -9885,9 +9653,8 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
-      <c r="I343" s="3"/>
-    </row>
-    <row r="344" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:8" ht="54">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="2">
@@ -9900,9 +9667,8 @@
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
-      <c r="I344" s="3"/>
-    </row>
-    <row r="345" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:8" ht="135">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="2">
@@ -9915,9 +9681,8 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
-      <c r="I345" s="3"/>
-    </row>
-    <row r="346" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:8" ht="54">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="2">
@@ -9930,9 +9695,8 @@
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
-      <c r="I346" s="3"/>
-    </row>
-    <row r="347" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:8" ht="40.5">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="2">
@@ -9945,9 +9709,8 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
-      <c r="I347" s="3"/>
-    </row>
-    <row r="348" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:8" ht="67.5">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="2">
@@ -9960,9 +9723,8 @@
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
-      <c r="I348" s="3"/>
-    </row>
-    <row r="349" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:8" ht="40.5">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="2">
@@ -9975,9 +9737,8 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
-      <c r="I349" s="3"/>
-    </row>
-    <row r="350" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:8" ht="54">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="2">
@@ -9990,9 +9751,8 @@
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
-      <c r="I350" s="3"/>
-    </row>
-    <row r="351" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:8" ht="40.5">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="2">
@@ -10005,9 +9765,8 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
-      <c r="I351" s="3"/>
-    </row>
-    <row r="352" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:8" ht="40.5">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="2">
@@ -10020,9 +9779,8 @@
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
-      <c r="I352" s="3"/>
-    </row>
-    <row r="353" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:8" ht="40.5">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="2">
@@ -10035,9 +9793,8 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
-      <c r="I353" s="3"/>
-    </row>
-    <row r="354" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:8" ht="40.5">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="2">
@@ -10050,9 +9807,8 @@
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
-      <c r="I354" s="3"/>
-    </row>
-    <row r="355" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:8" ht="54">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="2">
@@ -10065,9 +9821,8 @@
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
-      <c r="I355" s="3"/>
-    </row>
-    <row r="356" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:8" ht="40.5">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="2">
@@ -10080,9 +9835,8 @@
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
-      <c r="I356" s="3"/>
-    </row>
-    <row r="357" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:8" ht="27">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="2">
@@ -10095,9 +9849,8 @@
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
-      <c r="I357" s="3"/>
-    </row>
-    <row r="358" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:8" ht="27">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="2">
@@ -10110,9 +9863,8 @@
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
-      <c r="I358" s="3"/>
-    </row>
-    <row r="359" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:8" ht="94.5">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="2">
@@ -10125,9 +9877,8 @@
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
-      <c r="I359" s="3"/>
-    </row>
-    <row r="360" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:8" ht="40.5">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="2">
@@ -10140,9 +9891,8 @@
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
-      <c r="I360" s="3"/>
-    </row>
-    <row r="361" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:8" ht="81">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="2">
@@ -10155,9 +9905,8 @@
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
-      <c r="I361" s="3"/>
-    </row>
-    <row r="362" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:8" ht="40.5">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="2">
@@ -10170,9 +9919,8 @@
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
-      <c r="I362" s="3"/>
-    </row>
-    <row r="363" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:8" ht="40.5">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="2">
@@ -10185,9 +9933,8 @@
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
-      <c r="I363" s="3"/>
-    </row>
-    <row r="364" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:8" ht="40.5">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="2">
@@ -10200,9 +9947,8 @@
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
-      <c r="I364" s="3"/>
-    </row>
-    <row r="365" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:8" ht="27">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="2">
@@ -10215,9 +9961,8 @@
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
-      <c r="I365" s="3"/>
-    </row>
-    <row r="366" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:8" ht="27">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="2">
@@ -10230,9 +9975,8 @@
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
-      <c r="I366" s="3"/>
-    </row>
-    <row r="367" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:8" ht="27">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="2">
@@ -10245,9 +9989,8 @@
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
-      <c r="I367" s="3"/>
-    </row>
-    <row r="368" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:8" ht="27">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="2">
@@ -10260,9 +10003,8 @@
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
-      <c r="I368" s="3"/>
-    </row>
-    <row r="369" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:8" ht="27">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="2">
@@ -10275,9 +10017,8 @@
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
-      <c r="I369" s="3"/>
-    </row>
-    <row r="370" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:8" ht="27">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="2">
@@ -10290,9 +10031,8 @@
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
-      <c r="I370" s="3"/>
-    </row>
-    <row r="371" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:8" ht="40.5">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="2">
@@ -10305,9 +10045,8 @@
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
-      <c r="I371" s="3"/>
-    </row>
-    <row r="372" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:8" ht="27">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="2">
@@ -10320,9 +10059,8 @@
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
-      <c r="I372" s="3"/>
-    </row>
-    <row r="373" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:8" ht="40.5">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="2">
@@ -10335,9 +10073,8 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
-      <c r="I373" s="3"/>
-    </row>
-    <row r="374" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:8" ht="40.5">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="2">
@@ -10350,9 +10087,8 @@
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
-    </row>
-    <row r="375" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:8" ht="27">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="2">
@@ -10365,9 +10101,8 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
-      <c r="I375" s="3"/>
-    </row>
-    <row r="376" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:8" ht="40.5">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="2">
@@ -10380,9 +10115,8 @@
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
-      <c r="I376" s="3"/>
-    </row>
-    <row r="377" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:8" ht="27">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="2">
@@ -10395,9 +10129,8 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
-      <c r="I377" s="3"/>
-    </row>
-    <row r="378" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:8" ht="54">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="2">
@@ -10410,9 +10143,8 @@
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
-      <c r="I378" s="3"/>
-    </row>
-    <row r="379" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:8" ht="81">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="2">
@@ -10425,9 +10157,8 @@
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
-      <c r="I379" s="3"/>
-    </row>
-    <row r="380" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:8" ht="54">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="2">
@@ -10440,9 +10171,8 @@
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
-      <c r="I380" s="3"/>
-    </row>
-    <row r="381" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:8" ht="27">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="2">
@@ -10455,9 +10185,8 @@
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
-      <c r="I381" s="3"/>
-    </row>
-    <row r="382" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:8" ht="40.5">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="2">
@@ -10470,9 +10199,8 @@
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
-      <c r="I382" s="3"/>
-    </row>
-    <row r="383" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:8" ht="40.5">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="2">
@@ -10485,9 +10213,8 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
-      <c r="I383" s="3"/>
-    </row>
-    <row r="384" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:8" ht="135">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="2">
@@ -10500,9 +10227,8 @@
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
-      <c r="I384" s="3"/>
-    </row>
-    <row r="385" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:8" ht="162">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="2">
@@ -10515,9 +10241,8 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
-      <c r="I385" s="3"/>
-    </row>
-    <row r="386" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:8" ht="108">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="2">
@@ -10530,9 +10255,8 @@
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
-      <c r="I386" s="3"/>
-    </row>
-    <row r="387" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:8" ht="54">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="2">
@@ -10545,9 +10269,8 @@
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
-      <c r="I387" s="3"/>
-    </row>
-    <row r="388" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:8" ht="54">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="2">
@@ -10560,9 +10283,8 @@
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
-      <c r="I388" s="3"/>
-    </row>
-    <row r="389" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:8" ht="27">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="2">
@@ -10575,9 +10297,8 @@
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
-      <c r="I389" s="3"/>
-    </row>
-    <row r="390" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:8" ht="54">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="2">
@@ -10590,9 +10311,8 @@
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
-      <c r="I390" s="3"/>
-    </row>
-    <row r="391" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:8" ht="27">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="2">
@@ -10605,9 +10325,8 @@
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
-      <c r="I391" s="3"/>
-    </row>
-    <row r="392" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:8" ht="162">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="2">
@@ -10620,9 +10339,8 @@
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
-      <c r="I392" s="3"/>
-    </row>
-    <row r="393" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:8" ht="40.5">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="2">
@@ -10635,9 +10353,8 @@
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
-      <c r="I393" s="3"/>
-    </row>
-    <row r="394" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:8" ht="27">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="2">
@@ -10650,9 +10367,8 @@
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
-      <c r="I394" s="3"/>
-    </row>
-    <row r="395" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:8" ht="40.5">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="2">
@@ -10665,9 +10381,8 @@
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
-      <c r="I395" s="3"/>
-    </row>
-    <row r="396" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:8" ht="40.5">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="2">
@@ -10680,9 +10395,8 @@
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
-      <c r="I396" s="3"/>
-    </row>
-    <row r="397" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:8" ht="94.5">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="2">
@@ -10695,9 +10409,8 @@
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
-      <c r="I397" s="3"/>
-    </row>
-    <row r="398" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:8" ht="27">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="2">
@@ -10710,9 +10423,8 @@
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
-      <c r="I398" s="3"/>
-    </row>
-    <row r="399" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:8" ht="40.5">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="2">
@@ -10725,9 +10437,8 @@
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
-      <c r="I399" s="3"/>
-    </row>
-    <row r="400" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:8" ht="40.5">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="2">
@@ -10740,9 +10451,8 @@
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
-      <c r="I400" s="3"/>
-    </row>
-    <row r="401" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:8" ht="27">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="2">
@@ -10755,9 +10465,8 @@
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
-      <c r="I401" s="3"/>
-    </row>
-    <row r="402" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:8" ht="40.5">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="2">
@@ -10770,9 +10479,8 @@
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
-      <c r="I402" s="3"/>
-    </row>
-    <row r="403" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:8" ht="81">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="2">
@@ -10785,9 +10493,8 @@
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
-      <c r="I403" s="3"/>
-    </row>
-    <row r="404" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:8" ht="40.5">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="2">
@@ -10800,9 +10507,8 @@
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
-      <c r="I404" s="3"/>
-    </row>
-    <row r="405" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:8" ht="27">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="2">
@@ -10815,9 +10521,8 @@
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
-      <c r="I405" s="3"/>
-    </row>
-    <row r="406" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:8" ht="40.5">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="2">
@@ -10830,9 +10535,8 @@
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
-      <c r="I406" s="3"/>
-    </row>
-    <row r="407" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:8" ht="67.5">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="2">
@@ -10845,9 +10549,8 @@
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
-      <c r="I407" s="3"/>
-    </row>
-    <row r="408" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:8" ht="81">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="2">
@@ -10860,9 +10563,8 @@
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
-      <c r="I408" s="3"/>
-    </row>
-    <row r="409" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:8" ht="108">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="2">
@@ -10875,9 +10577,8 @@
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
-      <c r="I409" s="3"/>
-    </row>
-    <row r="410" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:8" ht="94.5">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="2">
@@ -10890,9 +10591,8 @@
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
-      <c r="I410" s="3"/>
-    </row>
-    <row r="411" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:8" ht="121.5">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="2">
@@ -10905,9 +10605,8 @@
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
-      <c r="I411" s="3"/>
-    </row>
-    <row r="412" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:8" ht="81">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="2">
@@ -10920,9 +10619,8 @@
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
-      <c r="I412" s="3"/>
-    </row>
-    <row r="413" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:8" ht="40.5">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="2">
@@ -10935,9 +10633,8 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
-      <c r="I413" s="3"/>
-    </row>
-    <row r="414" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:8" ht="54">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="2">
@@ -10950,9 +10647,8 @@
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
-      <c r="I414" s="3"/>
-    </row>
-    <row r="415" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:8" ht="67.5">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="2">
@@ -10965,9 +10661,8 @@
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
-      <c r="I415" s="3"/>
-    </row>
-    <row r="416" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:8" ht="94.5">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="2">
@@ -10980,9 +10675,8 @@
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
-      <c r="I416" s="3"/>
-    </row>
-    <row r="417" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:8" ht="135">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="2">
@@ -10995,9 +10689,8 @@
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
-      <c r="I417" s="3"/>
-    </row>
-    <row r="418" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:8" ht="121.5">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="2">
@@ -11010,9 +10703,8 @@
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
-      <c r="I418" s="3"/>
-    </row>
-    <row r="419" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:8" ht="67.5">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="2">
@@ -11025,9 +10717,8 @@
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
-      <c r="I419" s="3"/>
-    </row>
-    <row r="420" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:8" ht="67.5">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="2">
@@ -11040,9 +10731,8 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
-      <c r="I420" s="3"/>
-    </row>
-    <row r="421" spans="1:9" ht="121.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:8" ht="121.5">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="2">
@@ -11055,9 +10745,8 @@
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
-      <c r="I421" s="3"/>
-    </row>
-    <row r="422" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:8" ht="94.5">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="2">
@@ -11070,9 +10759,8 @@
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
-      <c r="I422" s="3"/>
-    </row>
-    <row r="423" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:8" ht="40.5">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="2">
@@ -11085,9 +10773,8 @@
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
-      <c r="I423" s="3"/>
-    </row>
-    <row r="424" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:8" ht="67.5">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="2">
@@ -11100,9 +10787,8 @@
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
-      <c r="I424" s="3"/>
-    </row>
-    <row r="425" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:8" ht="54">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="2">
@@ -11115,9 +10801,8 @@
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
-      <c r="I425" s="3"/>
-    </row>
-    <row r="426" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:8" ht="54">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="2">
@@ -11130,9 +10815,8 @@
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
-      <c r="I426" s="3"/>
-    </row>
-    <row r="427" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:8" ht="94.5">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="2">
@@ -11145,9 +10829,8 @@
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
-      <c r="I427" s="3"/>
-    </row>
-    <row r="428" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:8" ht="94.5">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="2">
@@ -11160,9 +10843,8 @@
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
-      <c r="I428" s="3"/>
-    </row>
-    <row r="429" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:8" ht="40.5">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="2">
@@ -11175,9 +10857,8 @@
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
-      <c r="I429" s="3"/>
-    </row>
-    <row r="430" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:8" ht="67.5">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="2">
@@ -11190,9 +10871,8 @@
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
-      <c r="I430" s="3"/>
-    </row>
-    <row r="431" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:8" ht="54">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="2">
@@ -11205,9 +10885,8 @@
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
-      <c r="I431" s="3"/>
-    </row>
-    <row r="432" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:8" ht="67.5">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="2">
@@ -11220,9 +10899,8 @@
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
-      <c r="I432" s="3"/>
-    </row>
-    <row r="433" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:8" ht="54">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="2">
@@ -11235,9 +10913,8 @@
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
-      <c r="I433" s="3"/>
-    </row>
-    <row r="434" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:8" ht="108">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="2">
@@ -11250,9 +10927,8 @@
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
-      <c r="I434" s="3"/>
-    </row>
-    <row r="435" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:8" ht="40.5">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="2">
@@ -11265,9 +10941,8 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
-      <c r="I435" s="3"/>
-    </row>
-    <row r="436" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:8" ht="54">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="2">
@@ -11280,9 +10955,8 @@
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
-      <c r="I436" s="3"/>
-    </row>
-    <row r="437" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:8" ht="54">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="2">
@@ -11295,9 +10969,8 @@
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
-      <c r="I437" s="3"/>
-    </row>
-    <row r="438" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:8" ht="40.5">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="2">
@@ -11310,9 +10983,8 @@
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
-      <c r="I438" s="3"/>
-    </row>
-    <row r="439" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:8" ht="40.5">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="2">
@@ -11325,9 +10997,8 @@
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
-      <c r="I439" s="3"/>
-    </row>
-    <row r="440" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:8" ht="54">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="2">
@@ -11340,9 +11011,8 @@
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
-      <c r="I440" s="3"/>
-    </row>
-    <row r="441" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:8" ht="81">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="2">
@@ -11355,9 +11025,8 @@
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
-      <c r="I441" s="3"/>
-    </row>
-    <row r="442" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:8" ht="54">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="2">
@@ -11370,9 +11039,8 @@
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
-      <c r="I442" s="3"/>
-    </row>
-    <row r="443" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:8" ht="81">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="2">
@@ -11385,9 +11053,8 @@
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
-      <c r="I443" s="3"/>
-    </row>
-    <row r="444" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:8" ht="67.5">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="2">
@@ -11400,9 +11067,8 @@
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
-      <c r="I444" s="3"/>
-    </row>
-    <row r="445" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:8" ht="54">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="2">
@@ -11415,9 +11081,8 @@
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
-      <c r="I445" s="3"/>
-    </row>
-    <row r="446" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:8" ht="54">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="2">
@@ -11430,9 +11095,8 @@
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
-      <c r="I446" s="3"/>
-    </row>
-    <row r="447" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:8" ht="54">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="2">
@@ -11445,9 +11109,8 @@
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
-      <c r="I447" s="3"/>
-    </row>
-    <row r="448" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:8" ht="81">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="2">
@@ -11460,9 +11123,9 @@
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
-      <c r="I448" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>